--- a/db/NCCU-401-旅遊地點.xlsx
+++ b/db/NCCU-401-旅遊地點.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C10E3DC-6285-D248-B875-0CEBD99ED901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A86E23-A40F-5D4B-A0C3-4267AE32ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36020" yWindow="6620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
+    <workbookView xWindow="2880" yWindow="2620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>地區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,7 +156,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No2</t>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,8 +241,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,362 +562,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>102</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>103</v>
+      </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>201</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>208</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F19">
-    <sortCondition ref="F4:F19"/>
-    <sortCondition ref="E4:E19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
+    <sortCondition ref="A2:A18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/NCCU-401-旅遊地點.xlsx
+++ b/db/NCCU-401-旅遊地點.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A86E23-A40F-5D4B-A0C3-4267AE32ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EBF33-6525-2247-B13E-588D16A9D9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>地區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AA310-9C39-A04D-BB87-9521EAB5B98C}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -938,6 +946,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
     <sortCondition ref="A2:A18"/>

--- a/db/NCCU-401-旅遊地點.xlsx
+++ b/db/NCCU-401-旅遊地點.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.12_TFWang/NCCUBkAlumni/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EBF33-6525-2247-B13E-588D16A9D9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B12BD4-1B4F-5C42-AC51-A7288614D58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2620" windowWidth="28260" windowHeight="17320" xr2:uid="{BAC94C6D-C196-2D4F-A2F2-89F0A182D671}"/>
   </bookViews>
@@ -573,10 +573,10 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -694,16 +694,16 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -717,13 +717,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -737,13 +737,13 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -757,13 +757,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -777,38 +777,38 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -820,15 +820,15 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -837,13 +837,13 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
